--- a/proy_prueba/proy_files/DB_2018.xlsx
+++ b/proy_prueba/proy_files/DB_2018.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
-    <sheet name="Profesores 2 Sem" sheetId="14" r:id="rId2"/>
-    <sheet name="Profesores_BU" sheetId="12" r:id="rId3"/>
+    <sheet name="Profesores_BU" sheetId="19" r:id="rId2"/>
+    <sheet name="Profesores 2 Sem" sheetId="14" r:id="rId3"/>
     <sheet name="Centros" sheetId="17" r:id="rId4"/>
     <sheet name="Centro_BU" sheetId="18" r:id="rId5"/>
     <sheet name="Info_Actividades" sheetId="9" r:id="rId6"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="179">
   <si>
     <t>Nombre</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>CB</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>AE</t>
@@ -696,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -785,17 +782,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -804,7 +790,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,13 +834,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,33 +845,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,9 +855,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,6 +894,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1229,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1261,14 +1240,14 @@
       <c r="E1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>54</v>
@@ -1291,16 +1270,16 @@
         <v>10000</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1320,16 +1299,16 @@
         <v>10000</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1349,16 +1328,16 @@
         <v>10000</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1378,16 +1357,16 @@
         <v>10000</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1407,16 +1386,16 @@
         <v>10000</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1436,16 +1415,16 @@
         <v>10000</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1465,21 +1444,21 @@
         <v>10000</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>38</v>
@@ -1494,16 +1473,16 @@
         <v>10000</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1523,16 +1502,16 @@
         <v>10000</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1552,16 +1531,16 @@
         <v>10000</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1581,27 +1560,27 @@
         <v>10000</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>97</v>
+      <c r="A13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -1610,79 +1589,108 @@
         <v>10000</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>98</v>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="A15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1704,28 +1712,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3256,28 +3264,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3286,42 +3294,42 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
         <v>2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>3</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -3336,10 +3344,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="1">
         <v>0</v>
       </c>
@@ -3357,7 +3365,7 @@
       <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="1">
         <v>0</v>
       </c>
@@ -3373,9 +3381,9 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="47"/>
+        <v>118</v>
+      </c>
+      <c r="B8" s="34"/>
       <c r="C8" s="1">
         <v>1</v>
       </c>
@@ -3390,10 +3398,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="1">
         <v>0</v>
       </c>
@@ -3408,10 +3416,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="49"/>
+      <c r="A10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="36"/>
       <c r="C10" s="1">
         <v>0</v>
       </c>
@@ -3426,10 +3434,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="47"/>
+      <c r="A11" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="34"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -3444,10 +3452,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="48"/>
+      <c r="A12" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="35"/>
       <c r="C12" s="1">
         <v>1</v>
       </c>
@@ -3462,10 +3470,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="47"/>
+      <c r="A13" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="34"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
@@ -3481,9 +3489,9 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="47"/>
+        <v>127</v>
+      </c>
+      <c r="B14" s="34"/>
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -3498,10 +3506,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -3517,9 +3525,9 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="47"/>
+        <v>112</v>
+      </c>
+      <c r="B16" s="34"/>
       <c r="C16" s="1">
         <v>0</v>
       </c>
@@ -3535,9 +3543,9 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="47"/>
+        <v>138</v>
+      </c>
+      <c r="B17" s="34"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -3553,9 +3561,9 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="47"/>
+        <v>167</v>
+      </c>
+      <c r="B18" s="34"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -3571,9 +3579,9 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="47"/>
+        <v>164</v>
+      </c>
+      <c r="B19" s="34"/>
       <c r="C19" s="1">
         <v>0</v>
       </c>
@@ -3588,10 +3596,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="49"/>
+      <c r="A20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="36"/>
       <c r="C20" s="1">
         <v>0</v>
       </c>
@@ -3607,9 +3615,9 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="50"/>
+        <v>168</v>
+      </c>
+      <c r="B21" s="37"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -3625,9 +3633,9 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="50"/>
+        <v>169</v>
+      </c>
+      <c r="B22" s="37"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -3643,7 +3651,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="1">
@@ -3663,7 +3671,7 @@
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="1">
         <v>2</v>
       </c>
@@ -3681,7 +3689,7 @@
       <c r="A25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="1">
         <v>2</v>
       </c>
@@ -3696,10 +3704,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="1">
         <v>0</v>
       </c>
@@ -3717,7 +3725,7 @@
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -3732,10 +3740,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="49"/>
+      <c r="A28" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="36"/>
       <c r="C28" s="1">
         <v>1</v>
       </c>
@@ -3753,7 +3761,7 @@
       <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="1">
         <v>0</v>
       </c>
@@ -3771,7 +3779,7 @@
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="1">
         <v>0</v>
       </c>
@@ -3787,7 +3795,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="1">
@@ -3804,10 +3812,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="49"/>
+      <c r="A32" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="36"/>
       <c r="C32" s="1">
         <v>1</v>
       </c>
@@ -3825,7 +3833,7 @@
       <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="1">
         <v>1</v>
       </c>
@@ -3840,10 +3848,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="49"/>
+      <c r="A34" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="36"/>
       <c r="C34" s="1">
         <v>0</v>
       </c>
@@ -3861,7 +3869,7 @@
       <c r="A35" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="1">
         <v>0</v>
       </c>
@@ -3876,10 +3884,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="47"/>
+      <c r="A36" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="34"/>
       <c r="C36" s="1">
         <v>1</v>
       </c>
@@ -3894,10 +3902,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="1">
         <v>0</v>
       </c>
@@ -3915,7 +3923,7 @@
       <c r="A38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="1">
         <v>0</v>
       </c>
@@ -3933,7 +3941,7 @@
       <c r="A39" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="1">
         <v>0</v>
       </c>
@@ -3948,10 +3956,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="48"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="1">
         <v>1</v>
       </c>
@@ -3967,27 +3975,27 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1">
         <v>1</v>
       </c>
@@ -4003,9 +4011,9 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="47"/>
+        <v>128</v>
+      </c>
+      <c r="B43" s="34"/>
       <c r="C43" s="1">
         <v>0</v>
       </c>
@@ -4023,7 +4031,7 @@
       <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="47"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="1">
         <v>1</v>
       </c>
@@ -4039,7 +4047,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="1">
@@ -4057,9 +4065,9 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="47"/>
+        <v>114</v>
+      </c>
+      <c r="B46" s="34"/>
       <c r="C46" s="1">
         <v>1</v>
       </c>
@@ -4075,9 +4083,9 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="47"/>
+        <v>141</v>
+      </c>
+      <c r="B47" s="34"/>
       <c r="C47" s="1">
         <v>0</v>
       </c>
@@ -4093,9 +4101,9 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="47"/>
+        <v>173</v>
+      </c>
+      <c r="B48" s="34"/>
       <c r="C48" s="1">
         <v>1</v>
       </c>
@@ -4110,10 +4118,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="1">
         <v>1</v>
       </c>
@@ -4129,9 +4137,9 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="47"/>
+        <v>140</v>
+      </c>
+      <c r="B50" s="34"/>
       <c r="C50" s="1">
         <v>0</v>
       </c>
@@ -4146,10 +4154,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="49"/>
+      <c r="A51" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="36"/>
       <c r="C51" s="1">
         <v>0</v>
       </c>
@@ -4167,7 +4175,7 @@
       <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="47"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="1">
         <v>1</v>
       </c>
@@ -4185,7 +4193,7 @@
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="47"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="1">
         <v>1</v>
       </c>
@@ -4200,10 +4208,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="47"/>
+      <c r="A54" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="34"/>
       <c r="C54" s="1">
         <v>0</v>
       </c>
@@ -4221,7 +4229,7 @@
       <c r="A55" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="47"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="1">
         <v>1</v>
       </c>
@@ -4236,10 +4244,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="48"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="1">
         <v>0</v>
       </c>
@@ -4257,7 +4265,7 @@
       <c r="A57" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="47"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="1">
         <v>1</v>
       </c>
@@ -4272,10 +4280,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="49"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="1">
         <v>1</v>
       </c>
@@ -4293,7 +4301,7 @@
       <c r="A59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="47"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="1">
         <v>0</v>
       </c>
@@ -4308,10 +4316,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="49"/>
+      <c r="A60" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="36"/>
       <c r="C60" s="1">
         <v>1</v>
       </c>
@@ -4327,9 +4335,9 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" s="47"/>
+        <v>163</v>
+      </c>
+      <c r="B61" s="34"/>
       <c r="C61" s="1">
         <v>0</v>
       </c>
@@ -4344,10 +4352,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="49"/>
+      <c r="A62" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="36"/>
       <c r="C62" s="1">
         <v>1</v>
       </c>
@@ -4365,7 +4373,7 @@
       <c r="A63" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="47"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="1">
         <v>1</v>
       </c>
@@ -4381,9 +4389,9 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" s="47"/>
+        <v>139</v>
+      </c>
+      <c r="B64" s="34"/>
       <c r="C64" s="1">
         <v>0</v>
       </c>
@@ -4399,9 +4407,9 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="47"/>
+        <v>117</v>
+      </c>
+      <c r="B65" s="34"/>
       <c r="C65" s="1">
         <v>2</v>
       </c>
@@ -4419,7 +4427,7 @@
       <c r="A66" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="47"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="1">
         <v>1</v>
       </c>
@@ -4437,7 +4445,7 @@
       <c r="A67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="50"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="1">
         <v>1</v>
       </c>
@@ -4452,10 +4460,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B68" s="47"/>
+      <c r="A68" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="34"/>
       <c r="C68" s="1">
         <v>1</v>
       </c>
@@ -4470,10 +4478,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="47"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="1">
         <v>0</v>
       </c>
@@ -4491,7 +4499,7 @@
       <c r="A70" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="47"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="1">
         <v>1</v>
       </c>
@@ -4509,7 +4517,7 @@
       <c r="A71" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="47"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="1">
         <v>1</v>
       </c>
@@ -4524,10 +4532,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72" s="47"/>
+      <c r="A72" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="34"/>
       <c r="C72" s="1">
         <v>1</v>
       </c>
@@ -4545,7 +4553,7 @@
       <c r="A73" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="50"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="1">
         <v>1</v>
       </c>
@@ -4561,9 +4569,9 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B74" s="47"/>
+        <v>178</v>
+      </c>
+      <c r="B74" s="34"/>
       <c r="C74" s="1">
         <v>1</v>
       </c>
@@ -4603,15 +4611,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
@@ -5263,11 +5271,502 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B70B36F-05AD-4EEA-AF71-C01F5C82A551}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E369B00-724A-43A8-8659-9840C0CA7BAB}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5314,7 +5813,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,7 +5831,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5350,7 +5849,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5368,7 +5867,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5386,7 +5885,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5404,7 +5903,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5422,12 +5921,12 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>38</v>
@@ -5440,7 +5939,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5458,7 +5957,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5476,7 +5975,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5494,7 +5993,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5502,7 +6001,7 @@
         <v>94</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="14">
         <v>1</v>
@@ -5512,12 +6011,12 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>10</v>
@@ -5528,12 +6027,12 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>10</v>
@@ -5548,12 +6047,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>10</v>
@@ -5566,12 +6065,12 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>10</v>
@@ -5584,12 +6083,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>10</v>
@@ -5602,546 +6101,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4620EF-E534-43A2-B37F-59F6F8CCC8B6}">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14">
-        <f>_xlfn.CEILING.MATH(0.3*C2,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="14">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14">
-        <f t="shared" ref="D3:D13" si="0">_xlfn.CEILING.MATH(0.3*C3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="14">
-        <v>6</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="14">
-        <v>8</v>
-      </c>
-      <c r="D7" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="14">
-        <v>8</v>
-      </c>
-      <c r="D8" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="D9" s="14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14">
-        <v>5</v>
-      </c>
-      <c r="D10" s="14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="14">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14">
-        <v>15</v>
-      </c>
-      <c r="D13" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <f>SUMIF($B$2:$B$14,$A17,C$2:C$14)</f>
-        <v>22.5</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:C21" si="1">SUMIF($B$2:$B$14,$A17,D$2:D$14)</f>
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <f>SUM(B17:C17)</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18" si="2">SUMIF($B$2:$B$14,$A18,C$2:C$14)</f>
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <f>SUM(B18:C18)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ref="B19" si="3">SUMIF($B$2:$B$14,$A19,C$2:C$14)</f>
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <f>SUM(B19:C19)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ref="B20" si="4">SUMIF($B$2:$B$14,$A20,C$2:C$14)</f>
-        <v>18.5</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <f>SUM(B20:C20)</f>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ref="B21" si="5">SUMIF($B$2:$B$14,$A21,C$2:C$14)</f>
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f>SUM(B21:C21)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6111,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804EFF46-8DBB-41FF-AC20-EB5E46E6254A}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6167,7 +6127,7 @@
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6187,30 +6147,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:F2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>134</v>
-      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -6226,9 +6190,13 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">SUM(B3:F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B4">
@@ -6246,8 +6214,12 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
@@ -6266,10 +6238,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6286,9 +6262,13 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B7">
@@ -6306,10 +6286,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>122</v>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6326,231 +6310,279 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="B20">
         <v>0</v>
       </c>
@@ -6566,8 +6598,12 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
@@ -6586,8 +6622,12 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
@@ -6606,9 +6646,13 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B23">
@@ -6626,8 +6670,12 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -6646,10 +6694,14 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>146</v>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6666,8 +6718,12 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>78</v>
       </c>
@@ -6686,8 +6742,12 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -6706,10 +6766,14 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>171</v>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6726,8 +6790,12 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>73</v>
       </c>
@@ -6746,10 +6814,14 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>143</v>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6766,8 +6838,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -6786,10 +6862,14 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>123</v>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6806,9 +6886,13 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B33">
@@ -6826,8 +6910,12 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -6846,8 +6934,12 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>25</v>
       </c>
@@ -6866,9 +6958,13 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B36">
@@ -6886,10 +6982,14 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
-        <v>173</v>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>172</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6906,10 +7006,14 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6926,10 +7030,14 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6946,8 +7054,12 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
@@ -6966,10 +7078,14 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -6986,10 +7102,14 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7006,10 +7126,14 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7026,9 +7150,13 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B44">
@@ -7046,10 +7174,14 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7066,10 +7198,14 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
-        <v>126</v>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7086,8 +7222,12 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>67</v>
       </c>
@@ -7106,8 +7246,12 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>77</v>
       </c>
@@ -7126,10 +7270,14 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
-        <v>124</v>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7146,8 +7294,12 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
@@ -7166,9 +7318,13 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B51">
@@ -7186,8 +7342,12 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>80</v>
       </c>
@@ -7206,9 +7366,13 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B53">
@@ -7226,10 +7390,14 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
-        <v>121</v>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7246,8 +7414,12 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -7266,10 +7438,14 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7286,10 +7462,14 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
-        <v>175</v>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7306,8 +7486,12 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>70</v>
       </c>
@@ -7326,10 +7510,14 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7346,10 +7534,14 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7366,8 +7558,12 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>15</v>
       </c>
@@ -7386,8 +7582,12 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
@@ -7406,10 +7606,14 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
-        <v>166</v>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7426,9 +7630,13 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B64">
@@ -7446,8 +7654,12 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>47</v>
       </c>
@@ -7466,8 +7678,12 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>81</v>
       </c>
@@ -7486,10 +7702,14 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
-        <v>144</v>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7506,8 +7726,12 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" ref="H67:H72" si="1">SUM(B67:F67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -7526,10 +7750,14 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -7546,51 +7774,63 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>176</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>177</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>178</v>
-      </c>
       <c r="B72">
         <v>0</v>
       </c>
@@ -7604,6 +7844,10 @@
         <v>0</v>
       </c>
       <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7632,66 +7876,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7699,7 +7943,7 @@
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7707,7 +7951,7 @@
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7715,7 +7959,7 @@
       <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7723,7 +7967,7 @@
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7731,103 +7975,103 @@
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B20" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="43" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="43" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="43" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="43" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7835,7 +8079,7 @@
       <c r="A26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7843,7 +8087,7 @@
       <c r="A27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7851,7 +8095,7 @@
       <c r="A28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7859,15 +8103,15 @@
       <c r="A29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7875,15 +8119,15 @@
       <c r="A31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7891,7 +8135,7 @@
       <c r="A33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7899,7 +8143,7 @@
       <c r="A34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7907,7 +8151,7 @@
       <c r="A35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7915,15 +8159,15 @@
       <c r="A36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7931,55 +8175,55 @@
       <c r="A38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7987,7 +8231,7 @@
       <c r="A45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7995,23 +8239,23 @@
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8019,47 +8263,47 @@
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="43" t="s">
+      <c r="A54" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8067,15 +8311,15 @@
       <c r="A55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8083,7 +8327,7 @@
       <c r="A57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8091,7 +8335,7 @@
       <c r="A58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8099,47 +8343,47 @@
       <c r="A59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8147,39 +8391,39 @@
       <c r="A65" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="43" t="s">
+      <c r="A66" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8187,7 +8431,7 @@
       <c r="A70" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8195,87 +8439,87 @@
       <c r="A71" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B73" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B73" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B75" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="45" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B79" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" s="43" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B77" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="46" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8283,7 +8527,7 @@
       <c r="A82" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8291,39 +8535,39 @@
       <c r="A83" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B86" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8331,7 +8575,7 @@
       <c r="A88" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8339,7 +8583,7 @@
       <c r="A89" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8374,10 +8618,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8502,8 +8746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C443F7A-E822-4804-97E7-F39A03E7855F}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9237,32 +9481,32 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9271,54 +9515,54 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39">
-        <v>1</v>
-      </c>
-      <c r="D3" s="39">
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26">
         <v>2</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="26">
         <v>3</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="26">
         <v>4</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="26">
         <v>5</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -9339,10 +9583,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="1">
         <v>0</v>
       </c>
@@ -9366,7 +9610,7 @@
       <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="1">
         <v>0</v>
       </c>
@@ -9388,9 +9632,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="47"/>
+        <v>118</v>
+      </c>
+      <c r="B8" s="34"/>
       <c r="C8" s="1">
         <v>0</v>
       </c>
@@ -9411,10 +9655,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="1">
         <v>0</v>
       </c>
@@ -9435,10 +9679,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="49"/>
+      <c r="A10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="36"/>
       <c r="C10" s="1">
         <v>0</v>
       </c>
@@ -9459,10 +9703,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="47"/>
+      <c r="A11" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="34"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -9483,10 +9727,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="48"/>
+      <c r="A12" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="35"/>
       <c r="C12" s="1">
         <v>0</v>
       </c>
@@ -9507,10 +9751,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="47"/>
+      <c r="A13" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="34"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
@@ -9532,9 +9776,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="47"/>
+        <v>127</v>
+      </c>
+      <c r="B14" s="34"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -9555,10 +9799,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -9580,9 +9824,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="47"/>
+        <v>112</v>
+      </c>
+      <c r="B16" s="34"/>
       <c r="C16" s="1">
         <v>0</v>
       </c>
@@ -9604,9 +9848,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="47"/>
+        <v>138</v>
+      </c>
+      <c r="B17" s="34"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -9628,9 +9872,9 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="47"/>
+        <v>167</v>
+      </c>
+      <c r="B18" s="34"/>
       <c r="C18" s="1">
         <v>0</v>
       </c>
@@ -9652,9 +9896,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="47"/>
+        <v>164</v>
+      </c>
+      <c r="B19" s="34"/>
       <c r="C19" s="1">
         <v>0</v>
       </c>
@@ -9675,10 +9919,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="49"/>
+      <c r="A20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="36"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -9700,9 +9944,9 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="50"/>
+        <v>168</v>
+      </c>
+      <c r="B21" s="37"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -9724,9 +9968,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="50"/>
+        <v>169</v>
+      </c>
+      <c r="B22" s="37"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -9750,7 +9994,7 @@
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="1">
         <v>0</v>
       </c>
@@ -9774,7 +10018,7 @@
       <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="1">
         <v>0</v>
       </c>
@@ -9795,10 +10039,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="49"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -9822,7 +10066,7 @@
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="1">
         <v>0</v>
       </c>
@@ -9843,10 +10087,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="49"/>
+      <c r="A27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="36"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -9870,7 +10114,7 @@
       <c r="A28" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="1">
         <v>0</v>
       </c>
@@ -9894,7 +10138,7 @@
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="1">
         <v>0</v>
       </c>
@@ -9915,10 +10159,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="49"/>
+      <c r="A30" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="36"/>
       <c r="C30" s="1">
         <v>0</v>
       </c>
@@ -9942,7 +10186,7 @@
       <c r="A31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="1">
         <v>0</v>
       </c>
@@ -9963,10 +10207,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="49"/>
+      <c r="A32" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="36"/>
       <c r="C32" s="1">
         <v>2</v>
       </c>
@@ -9990,7 +10234,7 @@
       <c r="A33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="1">
         <v>0</v>
       </c>
@@ -10011,10 +10255,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="47"/>
+      <c r="A34" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="34"/>
       <c r="C34" s="1">
         <v>2</v>
       </c>
@@ -10035,10 +10279,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="1">
         <v>1</v>
       </c>
@@ -10062,7 +10306,7 @@
       <c r="A36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="1">
         <v>0</v>
       </c>
@@ -10086,7 +10330,7 @@
       <c r="A37" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="1">
         <v>0</v>
       </c>
@@ -10107,10 +10351,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="48"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="1">
         <v>0</v>
       </c>
@@ -10131,10 +10375,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B39" s="48"/>
+      <c r="A39" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="35"/>
       <c r="C39" s="1">
         <v>0</v>
       </c>
@@ -10156,9 +10400,9 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="47"/>
+        <v>171</v>
+      </c>
+      <c r="B40" s="34"/>
       <c r="C40" s="1">
         <v>1</v>
       </c>
@@ -10180,9 +10424,9 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="47"/>
+        <v>128</v>
+      </c>
+      <c r="B41" s="34"/>
       <c r="C41" s="1">
         <v>1</v>
       </c>
@@ -10206,7 +10450,7 @@
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="14">
         <v>1</v>
       </c>
@@ -10228,9 +10472,9 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="47"/>
+        <v>114</v>
+      </c>
+      <c r="B43" s="34"/>
       <c r="C43" s="14">
         <v>1</v>
       </c>
@@ -10252,9 +10496,9 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="47"/>
+        <v>141</v>
+      </c>
+      <c r="B44" s="34"/>
       <c r="C44" s="14">
         <v>2</v>
       </c>
@@ -10276,9 +10520,9 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="47"/>
+        <v>173</v>
+      </c>
+      <c r="B45" s="34"/>
       <c r="C45" s="14">
         <v>0</v>
       </c>
@@ -10299,10 +10543,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="48"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="14">
         <v>0</v>
       </c>
@@ -10324,9 +10568,9 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="47"/>
+        <v>140</v>
+      </c>
+      <c r="B47" s="34"/>
       <c r="C47" s="14">
         <v>1</v>
       </c>
@@ -10347,10 +10591,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="49"/>
+      <c r="A48" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="36"/>
       <c r="C48" s="14">
         <v>1</v>
       </c>
@@ -10374,7 +10618,7 @@
       <c r="A49" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="47"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="14">
         <v>0</v>
       </c>
@@ -10398,7 +10642,7 @@
       <c r="A50" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="47"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="14">
         <v>0</v>
       </c>
@@ -10419,10 +10663,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="47"/>
+      <c r="A51" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="34"/>
       <c r="C51" s="14">
         <v>1</v>
       </c>
@@ -10446,7 +10690,7 @@
       <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="47"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="14">
         <v>0</v>
       </c>
@@ -10467,10 +10711,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="48"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="14">
         <v>0</v>
       </c>
@@ -10494,7 +10738,7 @@
       <c r="A54" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="47"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="14">
         <v>0</v>
       </c>
@@ -10515,10 +10759,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="49"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="14">
         <v>1</v>
       </c>
@@ -10539,10 +10783,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="49"/>
+      <c r="A56" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="36"/>
       <c r="C56" s="14">
         <v>1</v>
       </c>
@@ -10566,7 +10810,7 @@
       <c r="A57" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="47"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="14">
         <v>1</v>
       </c>
@@ -10588,9 +10832,9 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="47"/>
+        <v>163</v>
+      </c>
+      <c r="B58" s="34"/>
       <c r="C58" s="14">
         <v>0</v>
       </c>
@@ -10611,10 +10855,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="49"/>
+      <c r="A59" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="36"/>
       <c r="C59" s="14">
         <v>1</v>
       </c>
@@ -10638,7 +10882,7 @@
       <c r="A60" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="47"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="14">
         <v>0</v>
       </c>
@@ -10660,9 +10904,9 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="47"/>
+        <v>139</v>
+      </c>
+      <c r="B61" s="34"/>
       <c r="C61" s="14">
         <v>1</v>
       </c>
@@ -10684,9 +10928,9 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="47"/>
+        <v>117</v>
+      </c>
+      <c r="B62" s="34"/>
       <c r="C62" s="14">
         <v>1</v>
       </c>
@@ -10710,7 +10954,7 @@
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="47"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="14">
         <v>1</v>
       </c>
@@ -10734,7 +10978,7 @@
       <c r="A64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="50"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="14">
         <v>0</v>
       </c>
@@ -10755,10 +10999,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="47"/>
+      <c r="A65" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="34"/>
       <c r="C65" s="14">
         <v>0</v>
       </c>
@@ -10779,10 +11023,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="47"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="14">
         <v>1</v>
       </c>
@@ -10806,7 +11050,7 @@
       <c r="A67" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="47"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="14">
         <v>1</v>
       </c>
@@ -10830,7 +11074,7 @@
       <c r="A68" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="47"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="14">
         <v>0</v>
       </c>
@@ -10851,10 +11095,10 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" s="47"/>
+      <c r="A69" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="34"/>
       <c r="C69" s="14">
         <v>1</v>
       </c>
@@ -10878,7 +11122,7 @@
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="50"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="14">
         <v>0</v>
       </c>
@@ -10900,9 +11144,9 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B71" s="47"/>
+        <v>178</v>
+      </c>
+      <c r="B71" s="34"/>
       <c r="C71" s="14">
         <v>0</v>
       </c>
@@ -10924,7 +11168,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14">
@@ -10948,7 +11192,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="14">
@@ -10972,7 +11216,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14">

--- a/proy_prueba/proy_files/DB_2018.xlsx
+++ b/proy_prueba/proy_files/DB_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
@@ -1210,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4599,7 +4599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25823ED0-5F47-444C-8D9B-6CBD85C1FF51}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -7865,8 +7865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5697E2CB-2230-412A-8AF3-F0F6E1967A99}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/proy_prueba/proy_files/DB_2018.xlsx
+++ b/proy_prueba/proy_files/DB_2018.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerardo\Python_Proyectos\proy_prueba\proy_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F48FE2E-5494-492F-A457-05C2146EC82D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
-    <sheet name="Profesores_BU" sheetId="19" r:id="rId2"/>
+    <sheet name="Profesores_BU" sheetId="22" r:id="rId2"/>
     <sheet name="Profesores 2 Sem" sheetId="14" r:id="rId3"/>
     <sheet name="Centros" sheetId="17" r:id="rId4"/>
     <sheet name="Centro_BU" sheetId="18" r:id="rId5"/>
@@ -27,10 +28,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Centro_BU!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Centros!$A$1:$F$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Centros!$A$1:$F$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Internado!$A$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profesores!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Profesores_BU!$A$1:$G$16</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="184">
   <si>
     <t>Nombre</t>
   </si>
@@ -372,9 +375,6 @@
     <t>Max Examen</t>
   </si>
   <si>
-    <t>SUMIDERO</t>
-  </si>
-  <si>
     <t>Práctica - I</t>
   </si>
   <si>
@@ -577,6 +577,24 @@
   </si>
   <si>
     <t>Villa Soleares</t>
+  </si>
+  <si>
+    <t>Externalizaciones</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>Hermanitas Hospitalarias - SR</t>
+  </si>
+  <si>
+    <t>Hermanitas Hospitalarias - SC</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>MJV</t>
   </si>
 </sst>
 </file>
@@ -693,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -782,6 +800,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -790,7 +819,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,6 +923,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1208,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1219,12 +1250,10 @@
     <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="15" customWidth="1"/>
+    <col min="4" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1235,464 +1264,387 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="14">
-        <v>3</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14">
-        <v>10000</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>10000</v>
+      <c r="C4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>10000</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="14">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>10000</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="14">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>10000</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14">
-        <v>3</v>
+      <c r="C8" s="1">
+        <v>0</v>
       </c>
       <c r="D8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>10000</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
-        <v>10000</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14">
-        <v>10000</v>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14">
-        <v>2</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>10000</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14">
-        <v>3</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>10000</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
-        <v>10000</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>97</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="14">
-        <v>0</v>
+      <c r="E15" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="14">
+        <v>5</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="F16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G16" xr:uid="{C35C0C65-F02D-43E2-9CDB-2A0AB669217A}">
+    <sortState ref="A2:G16">
+      <sortCondition descending="1" ref="G1:G16"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1701,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB10B6C-F9E3-463C-8262-59705ECEB05D}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1712,28 +1664,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3255,10 +3207,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D1AF0-CFD2-4A71-A16C-6968066E001B}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3268,24 +3223,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3309,7 +3264,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="1">
@@ -3327,7 +3282,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="1">
@@ -3349,13 +3304,13 @@
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -3381,17 +3336,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3417,7 +3372,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="1">
@@ -3435,14 +3390,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -3453,7 +3408,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="1">
@@ -3471,7 +3426,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="1">
@@ -3489,7 +3444,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="1">
@@ -3525,7 +3480,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="1">
@@ -3543,7 +3498,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="1">
@@ -3553,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -3561,7 +3516,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="1">
@@ -3579,7 +3534,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="1">
@@ -3597,7 +3552,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="1">
@@ -3615,7 +3570,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="1">
@@ -3633,7 +3588,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="1">
@@ -3651,7 +3606,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="1">
@@ -3676,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -3741,7 +3696,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="1">
@@ -3751,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -3795,7 +3750,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="1">
@@ -3813,20 +3768,20 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3849,7 +3804,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="1">
@@ -3885,7 +3840,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="1">
@@ -3975,7 +3930,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="34"/>
       <c r="C41" s="1">
@@ -3993,7 +3948,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="1">
@@ -4011,7 +3966,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="1">
@@ -4047,7 +4002,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="1">
@@ -4065,7 +4020,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="1">
@@ -4083,7 +4038,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="1">
@@ -4101,7 +4056,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="1">
@@ -4137,7 +4092,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" s="34"/>
       <c r="C50" s="1">
@@ -4155,20 +4110,20 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4209,14 +4164,14 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="B54" s="34"/>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -4226,206 +4181,206 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>44</v>
+      <c r="A55" s="32" t="s">
+        <v>180</v>
       </c>
       <c r="B55" s="34"/>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="B57" s="35"/>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="B58" s="34"/>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="B59" s="36"/>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="36"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" s="34"/>
+      <c r="A61" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="36"/>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B62" s="36"/>
+      <c r="A62" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="34"/>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="B64" s="34"/>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>117</v>
+      <c r="A65" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B65" s="34"/>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>15</v>
+      <c r="A66" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="B66" s="34"/>
       <c r="C66" s="1">
@@ -4442,28 +4397,28 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="34"/>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="1">
         <v>1</v>
       </c>
@@ -4474,34 +4429,34 @@
         <v>1</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="B69" s="34"/>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>47</v>
+      <c r="A70" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="B70" s="34"/>
       <c r="C70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -4515,25 +4470,25 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B71" s="34"/>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
-        <v>143</v>
+      <c r="A72" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B72" s="34"/>
       <c r="C72" s="1">
@@ -4550,28 +4505,28 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="34"/>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" s="34"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="1">
         <v>1</v>
       </c>
@@ -4582,6 +4537,24 @@
         <v>1</v>
       </c>
       <c r="F74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="34"/>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4599,7 +4572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25823ED0-5F47-444C-8D9B-6CBD85C1FF51}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4611,15 +4584,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
@@ -5271,11 +5244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B70B36F-05AD-4EEA-AF71-C01F5C82A551}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7144A52A-B09F-4ACB-B051-1229245ED912}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5283,12 +5256,10 @@
     <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="15" customWidth="1"/>
+    <col min="4" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5299,404 +5270,320 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="14">
-        <v>3</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14">
-        <v>10000</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>10000</v>
+      <c r="C4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>10000</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="14">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>10000</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="14">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>10000</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14">
-        <v>3</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>10000</v>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>10000</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
-        <v>10000</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14">
-        <v>10000</v>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14">
-        <v>2</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>10000</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14">
-        <v>3</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>10000</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
-        <v>10000</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>96</v>
@@ -5707,56 +5594,49 @@
       <c r="D15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="14">
-        <v>0</v>
+      <c r="E15" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G16" xr:uid="{C35C0C65-F02D-43E2-9CDB-2A0AB669217A}">
+    <sortState ref="A2:G16">
+      <sortCondition descending="1" ref="G1:G16"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6111,10 +5991,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804EFF46-8DBB-41FF-AC20-EB5E46E6254A}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6127,7 +6007,7 @@
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6147,35 +6027,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>SUM(B2:F2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3">
+      <c r="B3" s="40">
         <v>0</v>
       </c>
       <c r="C3">
@@ -6190,12 +6066,8 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">SUM(B3:F3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>14</v>
       </c>
@@ -6214,12 +6086,8 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
@@ -6238,14 +6106,10 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6262,12 +6126,8 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>72</v>
       </c>
@@ -6286,14 +6146,10 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6310,14 +6166,10 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6334,14 +6186,10 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6358,14 +6206,10 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6382,14 +6226,10 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6406,12 +6246,8 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>27</v>
       </c>
@@ -6430,14 +6266,10 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6454,14 +6286,10 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6478,111 +6306,91 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="B20">
         <v>0</v>
       </c>
@@ -6598,12 +6406,8 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
@@ -6622,12 +6426,8 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
@@ -6646,12 +6446,8 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>76</v>
       </c>
@@ -6670,12 +6466,8 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -6694,14 +6486,10 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6718,12 +6506,8 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>78</v>
       </c>
@@ -6742,12 +6526,8 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -6766,14 +6546,10 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6790,12 +6566,8 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>73</v>
       </c>
@@ -6814,14 +6586,10 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6838,12 +6606,8 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -6862,14 +6626,10 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6886,12 +6646,8 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>26</v>
       </c>
@@ -6910,12 +6666,8 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -6934,12 +6686,8 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>25</v>
       </c>
@@ -6958,12 +6706,8 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>13</v>
       </c>
@@ -6982,14 +6726,10 @@
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7006,14 +6746,10 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7030,14 +6766,10 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7054,12 +6786,8 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
@@ -7078,14 +6806,10 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7102,14 +6826,10 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7126,14 +6846,10 @@
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7150,12 +6866,8 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>12</v>
       </c>
@@ -7174,14 +6886,10 @@
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7198,14 +6906,10 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7222,12 +6926,8 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>67</v>
       </c>
@@ -7246,12 +6946,8 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>77</v>
       </c>
@@ -7270,14 +6966,10 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7294,119 +6986,99 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>120</v>
-      </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -7414,47 +7086,39 @@
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -7462,399 +7126,351 @@
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>174</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H72" si="1">SUM(B67:F67)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>175</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>176</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>177</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="1"/>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F69" xr:uid="{4697B092-9A2B-4CA4-BF8F-4AB48C6436E7}">
-    <sortState ref="A2:F69">
-      <sortCondition ref="A1:A69"/>
+  <autoFilter ref="A1:F70" xr:uid="{4697B092-9A2B-4CA4-BF8F-4AB48C6436E7}">
+    <sortState ref="A2:F70">
+      <sortCondition ref="A1:A70"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7885,7 +7501,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>31</v>
@@ -7893,7 +7509,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>31</v>
@@ -7901,7 +7517,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>31</v>
@@ -7909,7 +7525,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>31</v>
@@ -7917,7 +7533,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>31</v>
@@ -7925,7 +7541,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>31</v>
@@ -7933,7 +7549,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>31</v>
@@ -7981,7 +7597,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>31</v>
@@ -7989,7 +7605,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>31</v>
@@ -7997,7 +7613,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>38</v>
@@ -8013,7 +7629,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>38</v>
@@ -8021,7 +7637,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>38</v>
@@ -8029,7 +7645,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>38</v>
@@ -8037,7 +7653,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>38</v>
@@ -8045,7 +7661,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>38</v>
@@ -8053,7 +7669,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>38</v>
@@ -8061,7 +7677,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>38</v>
@@ -8069,7 +7685,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>38</v>
@@ -8125,7 +7741,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>38</v>
@@ -8165,7 +7781,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>38</v>
@@ -8181,7 +7797,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>10</v>
@@ -8189,7 +7805,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>10</v>
@@ -8197,7 +7813,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>10</v>
@@ -8205,7 +7821,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>10</v>
@@ -8213,7 +7829,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>10</v>
@@ -8221,7 +7837,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>10</v>
@@ -8245,7 +7861,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>10</v>
@@ -8253,7 +7869,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>10</v>
@@ -8269,7 +7885,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>10</v>
@@ -8301,7 +7917,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>10</v>
@@ -8317,7 +7933,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>10</v>
@@ -8349,7 +7965,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>10</v>
@@ -8357,7 +7973,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>20</v>
@@ -8365,7 +7981,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>20</v>
@@ -8373,7 +7989,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>20</v>
@@ -8381,7 +7997,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>20</v>
@@ -8397,7 +8013,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>20</v>
@@ -8405,7 +8021,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>20</v>
@@ -8413,7 +8029,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>20</v>
@@ -8421,7 +8037,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>20</v>
@@ -8445,7 +8061,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>20</v>
@@ -8453,7 +8069,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>20</v>
@@ -8461,7 +8077,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" s="30" t="s">
         <v>23</v>
@@ -8469,7 +8085,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>23</v>
@@ -8501,7 +8117,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>23</v>
@@ -8509,7 +8125,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>23</v>
@@ -8517,7 +8133,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>23</v>
@@ -8541,7 +8157,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>23</v>
@@ -8549,7 +8165,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>23</v>
@@ -8557,7 +8173,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>23</v>
@@ -8565,7 +8181,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>23</v>
@@ -8676,7 +8292,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8720,10 +8336,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="13">
-        <v>43164</v>
+        <v>43171</v>
       </c>
       <c r="C4" s="13">
-        <v>43356</v>
+        <v>43363</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -8746,8 +8362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C443F7A-E822-4804-97E7-F39A03E7855F}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8775,11 +8391,11 @@
       </c>
       <c r="B2" s="13">
         <f>Info_Practicas!B4</f>
-        <v>43164</v>
+        <v>43171</v>
       </c>
       <c r="C2" s="13">
         <f>B2+3</f>
-        <v>43167</v>
+        <v>43174</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>55</v>
@@ -8792,11 +8408,11 @@
       </c>
       <c r="B3" s="13">
         <f>B2+7</f>
-        <v>43171</v>
+        <v>43178</v>
       </c>
       <c r="C3" s="13">
         <f>C2+7</f>
-        <v>43174</v>
+        <v>43181</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>55</v>
@@ -8809,11 +8425,11 @@
       </c>
       <c r="B4" s="13">
         <f t="shared" ref="B4:B41" si="1">B3+7</f>
-        <v>43178</v>
+        <v>43185</v>
       </c>
       <c r="C4" s="13">
         <f t="shared" ref="C4:C41" si="2">C3+7</f>
-        <v>43181</v>
+        <v>43188</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>55</v>
@@ -8826,11 +8442,11 @@
       </c>
       <c r="B5" s="13">
         <f t="shared" si="1"/>
-        <v>43185</v>
+        <v>43192</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="2"/>
-        <v>43188</v>
+        <v>43195</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>55</v>
@@ -8843,11 +8459,11 @@
       </c>
       <c r="B6" s="13">
         <f t="shared" si="1"/>
-        <v>43192</v>
+        <v>43199</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" si="2"/>
-        <v>43195</v>
+        <v>43202</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>55</v>
@@ -8860,11 +8476,11 @@
       </c>
       <c r="B7" s="13">
         <f t="shared" si="1"/>
-        <v>43199</v>
+        <v>43206</v>
       </c>
       <c r="C7" s="13">
         <f t="shared" si="2"/>
-        <v>43202</v>
+        <v>43209</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>55</v>
@@ -8877,11 +8493,11 @@
       </c>
       <c r="B8" s="13">
         <f t="shared" si="1"/>
-        <v>43206</v>
+        <v>43213</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="2"/>
-        <v>43209</v>
+        <v>43216</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>55</v>
@@ -8894,11 +8510,11 @@
       </c>
       <c r="B9" s="13">
         <f t="shared" si="1"/>
-        <v>43213</v>
+        <v>43220</v>
       </c>
       <c r="C9" s="13">
         <f t="shared" si="2"/>
-        <v>43216</v>
+        <v>43223</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>55</v>
@@ -8911,11 +8527,11 @@
       </c>
       <c r="B10" s="13">
         <f t="shared" si="1"/>
-        <v>43220</v>
+        <v>43227</v>
       </c>
       <c r="C10" s="13">
         <f t="shared" si="2"/>
-        <v>43223</v>
+        <v>43230</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
@@ -8928,11 +8544,11 @@
       </c>
       <c r="B11" s="13">
         <f t="shared" si="1"/>
-        <v>43227</v>
+        <v>43234</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" si="2"/>
-        <v>43230</v>
+        <v>43237</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -8945,11 +8561,11 @@
       </c>
       <c r="B12" s="13">
         <f t="shared" si="1"/>
-        <v>43234</v>
+        <v>43241</v>
       </c>
       <c r="C12" s="13">
         <f t="shared" si="2"/>
-        <v>43237</v>
+        <v>43244</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
@@ -8962,11 +8578,11 @@
       </c>
       <c r="B13" s="13">
         <f t="shared" si="1"/>
-        <v>43241</v>
+        <v>43248</v>
       </c>
       <c r="C13" s="13">
         <f t="shared" si="2"/>
-        <v>43244</v>
+        <v>43251</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
@@ -8979,11 +8595,11 @@
       </c>
       <c r="B14" s="13">
         <f t="shared" si="1"/>
-        <v>43248</v>
+        <v>43255</v>
       </c>
       <c r="C14" s="13">
         <f t="shared" si="2"/>
-        <v>43251</v>
+        <v>43258</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
@@ -8996,11 +8612,11 @@
       </c>
       <c r="B15" s="13">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43262</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" si="2"/>
-        <v>43258</v>
+        <v>43265</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>55</v>
@@ -9013,11 +8629,11 @@
       </c>
       <c r="B16" s="13">
         <f t="shared" si="1"/>
-        <v>43262</v>
+        <v>43269</v>
       </c>
       <c r="C16" s="13">
         <f t="shared" si="2"/>
-        <v>43265</v>
+        <v>43272</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
@@ -9030,11 +8646,11 @@
       </c>
       <c r="B17" s="13">
         <f t="shared" si="1"/>
-        <v>43269</v>
+        <v>43276</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="2"/>
-        <v>43272</v>
+        <v>43279</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>55</v>
@@ -9047,11 +8663,11 @@
       </c>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
-        <v>43276</v>
+        <v>43283</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="2"/>
-        <v>43279</v>
+        <v>43286</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>55</v>
@@ -9064,11 +8680,11 @@
       </c>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
-        <v>43283</v>
+        <v>43290</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="2"/>
-        <v>43286</v>
+        <v>43293</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>55</v>
@@ -9081,11 +8697,11 @@
       </c>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
-        <v>43290</v>
+        <v>43297</v>
       </c>
       <c r="C20" s="13">
         <f t="shared" si="2"/>
-        <v>43293</v>
+        <v>43300</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>55</v>
@@ -9098,11 +8714,11 @@
       </c>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
-        <v>43297</v>
+        <v>43304</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" si="2"/>
-        <v>43300</v>
+        <v>43307</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>55</v>
@@ -9115,11 +8731,11 @@
       </c>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
-        <v>43304</v>
+        <v>43311</v>
       </c>
       <c r="C22" s="13">
         <f t="shared" si="2"/>
-        <v>43307</v>
+        <v>43314</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>55</v>
@@ -9132,11 +8748,11 @@
       </c>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
-        <v>43311</v>
+        <v>43318</v>
       </c>
       <c r="C23" s="13">
         <f t="shared" si="2"/>
-        <v>43314</v>
+        <v>43321</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>55</v>
@@ -9149,11 +8765,11 @@
       </c>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
-        <v>43318</v>
+        <v>43325</v>
       </c>
       <c r="C24" s="13">
         <f t="shared" si="2"/>
-        <v>43321</v>
+        <v>43328</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -9166,11 +8782,11 @@
       </c>
       <c r="B25" s="13">
         <f t="shared" si="1"/>
-        <v>43325</v>
+        <v>43332</v>
       </c>
       <c r="C25" s="13">
         <f t="shared" si="2"/>
-        <v>43328</v>
+        <v>43335</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>55</v>
@@ -9183,11 +8799,11 @@
       </c>
       <c r="B26" s="13">
         <f t="shared" si="1"/>
-        <v>43332</v>
+        <v>43339</v>
       </c>
       <c r="C26" s="13">
         <f t="shared" si="2"/>
-        <v>43335</v>
+        <v>43342</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>55</v>
@@ -9200,11 +8816,11 @@
       </c>
       <c r="B27" s="13">
         <f t="shared" si="1"/>
-        <v>43339</v>
+        <v>43346</v>
       </c>
       <c r="C27" s="13">
         <f t="shared" si="2"/>
-        <v>43342</v>
+        <v>43349</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>55</v>
@@ -9217,11 +8833,11 @@
       </c>
       <c r="B28" s="13">
         <f t="shared" si="1"/>
-        <v>43346</v>
+        <v>43353</v>
       </c>
       <c r="C28" s="13">
         <f t="shared" si="2"/>
-        <v>43349</v>
+        <v>43356</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>55</v>
@@ -9234,14 +8850,14 @@
       </c>
       <c r="B29" s="13">
         <f t="shared" si="1"/>
-        <v>43353</v>
+        <v>43360</v>
       </c>
       <c r="C29" s="13">
         <f t="shared" si="2"/>
-        <v>43356</v>
+        <v>43363</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9251,14 +8867,14 @@
       </c>
       <c r="B30" s="13">
         <f t="shared" si="1"/>
-        <v>43360</v>
+        <v>43367</v>
       </c>
       <c r="C30" s="13">
         <f t="shared" si="2"/>
-        <v>43363</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>43370</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9268,11 +8884,11 @@
       </c>
       <c r="B31" s="13">
         <f t="shared" si="1"/>
-        <v>43367</v>
+        <v>43374</v>
       </c>
       <c r="C31" s="13">
         <f t="shared" si="2"/>
-        <v>43370</v>
+        <v>43377</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>55</v>
@@ -9285,11 +8901,11 @@
       </c>
       <c r="B32" s="13">
         <f t="shared" si="1"/>
-        <v>43374</v>
+        <v>43381</v>
       </c>
       <c r="C32" s="13">
         <f t="shared" si="2"/>
-        <v>43377</v>
+        <v>43384</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>55</v>
@@ -9302,11 +8918,11 @@
       </c>
       <c r="B33" s="13">
         <f t="shared" si="1"/>
-        <v>43381</v>
+        <v>43388</v>
       </c>
       <c r="C33" s="13">
         <f t="shared" si="2"/>
-        <v>43384</v>
+        <v>43391</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>55</v>
@@ -9319,11 +8935,11 @@
       </c>
       <c r="B34" s="13">
         <f t="shared" si="1"/>
-        <v>43388</v>
+        <v>43395</v>
       </c>
       <c r="C34" s="13">
         <f t="shared" si="2"/>
-        <v>43391</v>
+        <v>43398</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>55</v>
@@ -9336,11 +8952,11 @@
       </c>
       <c r="B35" s="13">
         <f t="shared" si="1"/>
-        <v>43395</v>
+        <v>43402</v>
       </c>
       <c r="C35" s="13">
         <f t="shared" si="2"/>
-        <v>43398</v>
+        <v>43405</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>55</v>
@@ -9353,11 +8969,11 @@
       </c>
       <c r="B36" s="13">
         <f t="shared" si="1"/>
-        <v>43402</v>
+        <v>43409</v>
       </c>
       <c r="C36" s="13">
         <f t="shared" si="2"/>
-        <v>43405</v>
+        <v>43412</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>55</v>
@@ -9370,11 +8986,11 @@
       </c>
       <c r="B37" s="13">
         <f t="shared" si="1"/>
-        <v>43409</v>
+        <v>43416</v>
       </c>
       <c r="C37" s="13">
         <f t="shared" si="2"/>
-        <v>43412</v>
+        <v>43419</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>55</v>
@@ -9387,11 +9003,11 @@
       </c>
       <c r="B38" s="13">
         <f t="shared" si="1"/>
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="C38" s="13">
         <f t="shared" si="2"/>
-        <v>43419</v>
+        <v>43426</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>55</v>
@@ -9404,11 +9020,11 @@
       </c>
       <c r="B39" s="13">
         <f t="shared" si="1"/>
-        <v>43423</v>
+        <v>43430</v>
       </c>
       <c r="C39" s="13">
         <f t="shared" si="2"/>
-        <v>43426</v>
+        <v>43433</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>55</v>
@@ -9421,11 +9037,11 @@
       </c>
       <c r="B40" s="13">
         <f t="shared" si="1"/>
-        <v>43430</v>
+        <v>43437</v>
       </c>
       <c r="C40" s="13">
         <f t="shared" si="2"/>
-        <v>43433</v>
+        <v>43440</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>55</v>
@@ -9438,11 +9054,11 @@
       </c>
       <c r="B41" s="13">
         <f t="shared" si="1"/>
-        <v>43437</v>
+        <v>43444</v>
       </c>
       <c r="C41" s="13">
         <f t="shared" si="2"/>
-        <v>43440</v>
+        <v>43447</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>55</v>
@@ -9455,11 +9071,11 @@
       </c>
       <c r="B42" s="13">
         <f>B41+7</f>
-        <v>43444</v>
+        <v>43451</v>
       </c>
       <c r="C42" s="13">
         <f>C41+7</f>
-        <v>43447</v>
+        <v>43454</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>55</v>
@@ -9474,8 +9090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D77" sqref="C76:D77"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B54" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9485,28 +9104,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9536,7 +9155,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="1">
@@ -9549,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -9560,7 +9179,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="1">
@@ -9632,23 +9251,23 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -9680,7 +9299,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="1">
@@ -9704,23 +9323,23 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -9728,7 +9347,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="1">
@@ -9752,7 +9371,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="1">
@@ -9776,11 +9395,11 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -9824,7 +9443,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="1">
@@ -9837,18 +9456,18 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="1">
@@ -9864,15 +9483,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="1">
@@ -9896,7 +9515,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="1">
@@ -9920,11 +9539,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -9944,23 +9563,23 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -9968,14 +9587,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -9984,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -10059,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -10088,7 +9707,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="1">
@@ -10160,7 +9779,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="1">
@@ -10208,14 +9827,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="1">
         <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -10256,26 +9875,26 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -10284,7 +9903,7 @@
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -10293,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -10376,7 +9995,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="1">
@@ -10400,20 +10019,20 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -10424,7 +10043,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="34"/>
       <c r="C41" s="1">
@@ -10451,17 +10070,17 @@
         <v>16</v>
       </c>
       <c r="B42" s="34"/>
-      <c r="C42" s="14">
-        <v>1</v>
-      </c>
-      <c r="D42" s="14">
-        <v>0</v>
-      </c>
-      <c r="E42" s="14">
-        <v>2</v>
-      </c>
-      <c r="F42" s="14">
-        <v>2</v>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -10472,22 +10091,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="34"/>
-      <c r="C43" s="14">
-        <v>1</v>
-      </c>
-      <c r="D43" s="14">
-        <v>1</v>
-      </c>
-      <c r="E43" s="14">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
         <v>2</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="1">
         <v>2</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="1">
         <v>2</v>
       </c>
       <c r="H43" s="1">
@@ -10496,16 +10115,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="34"/>
-      <c r="C44" s="14">
+      <c r="C44" s="1">
         <v>2</v>
       </c>
-      <c r="D44" s="14">
-        <v>1</v>
-      </c>
-      <c r="E44" s="14">
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="1">
@@ -10520,23 +10139,23 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" s="34"/>
-      <c r="C45" s="14">
-        <v>0</v>
-      </c>
-      <c r="D45" s="14">
-        <v>0</v>
-      </c>
-      <c r="E45" s="14">
-        <v>0</v>
-      </c>
-      <c r="F45" s="14">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -10547,13 +10166,13 @@
         <v>12</v>
       </c>
       <c r="B46" s="35"/>
-      <c r="C46" s="14">
-        <v>0</v>
-      </c>
-      <c r="D46" s="14">
-        <v>0</v>
-      </c>
-      <c r="E46" s="14">
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
         <v>0</v>
       </c>
       <c r="F46" s="1">
@@ -10568,16 +10187,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" s="34"/>
-      <c r="C47" s="14">
-        <v>1</v>
-      </c>
-      <c r="D47" s="14">
-        <v>0</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
         <v>0</v>
       </c>
       <c r="F47" s="1">
@@ -10592,13 +10211,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" s="36"/>
-      <c r="C48" s="14">
-        <v>1</v>
-      </c>
-      <c r="D48" s="14">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="1">
@@ -10619,10 +10238,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="34"/>
-      <c r="C49" s="14">
-        <v>0</v>
-      </c>
-      <c r="D49" s="14">
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
@@ -10643,10 +10262,10 @@
         <v>77</v>
       </c>
       <c r="B50" s="34"/>
-      <c r="C50" s="14">
-        <v>0</v>
-      </c>
-      <c r="D50" s="14">
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
@@ -10664,13 +10283,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B51" s="34"/>
-      <c r="C51" s="14">
-        <v>1</v>
-      </c>
-      <c r="D51" s="14">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="1">
@@ -10691,10 +10310,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="34"/>
-      <c r="C52" s="14">
-        <v>0</v>
-      </c>
-      <c r="D52" s="14">
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
@@ -10715,10 +10334,10 @@
         <v>43</v>
       </c>
       <c r="B53" s="35"/>
-      <c r="C53" s="14">
-        <v>0</v>
-      </c>
-      <c r="D53" s="14">
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
@@ -10739,10 +10358,10 @@
         <v>80</v>
       </c>
       <c r="B54" s="34"/>
-      <c r="C54" s="14">
-        <v>0</v>
-      </c>
-      <c r="D54" s="14">
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
@@ -10763,17 +10382,17 @@
         <v>28</v>
       </c>
       <c r="B55" s="36"/>
-      <c r="C55" s="14">
-        <v>1</v>
-      </c>
-      <c r="D55" s="14">
-        <v>2</v>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -10784,17 +10403,17 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" s="36"/>
-      <c r="C56" s="14">
-        <v>1</v>
-      </c>
-      <c r="D56" s="14">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
         <v>2</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
@@ -10811,10 +10430,10 @@
         <v>65</v>
       </c>
       <c r="B57" s="34"/>
-      <c r="C57" s="14">
-        <v>1</v>
-      </c>
-      <c r="D57" s="14">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
@@ -10824,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -10832,13 +10451,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" s="34"/>
-      <c r="C58" s="14">
-        <v>0</v>
-      </c>
-      <c r="D58" s="14">
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
@@ -10856,13 +10475,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B59" s="36"/>
-      <c r="C59" s="14">
-        <v>1</v>
-      </c>
-      <c r="D59" s="14">
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="1">
@@ -10883,10 +10502,10 @@
         <v>70</v>
       </c>
       <c r="B60" s="34"/>
-      <c r="C60" s="14">
-        <v>0</v>
-      </c>
-      <c r="D60" s="14">
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
@@ -10904,17 +10523,17 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="34"/>
-      <c r="C61" s="14">
-        <v>1</v>
-      </c>
-      <c r="D61" s="14">
-        <v>1</v>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
@@ -10928,13 +10547,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" s="34"/>
-      <c r="C62" s="14">
-        <v>1</v>
-      </c>
-      <c r="D62" s="14">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
         <v>3</v>
       </c>
       <c r="E62" s="1">
@@ -10944,7 +10563,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -10955,10 +10574,10 @@
         <v>15</v>
       </c>
       <c r="B63" s="34"/>
-      <c r="C63" s="14">
-        <v>1</v>
-      </c>
-      <c r="D63" s="14">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
@@ -10968,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -10979,10 +10598,10 @@
         <v>17</v>
       </c>
       <c r="B64" s="37"/>
-      <c r="C64" s="14">
-        <v>0</v>
-      </c>
-      <c r="D64" s="14">
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
@@ -11000,13 +10619,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="34"/>
-      <c r="C65" s="14">
-        <v>0</v>
-      </c>
-      <c r="D65" s="14">
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
@@ -11027,10 +10646,10 @@
         <v>49</v>
       </c>
       <c r="B66" s="34"/>
-      <c r="C66" s="14">
-        <v>1</v>
-      </c>
-      <c r="D66" s="14">
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
         <v>1</v>
       </c>
       <c r="E66" s="1">
@@ -11040,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
@@ -11051,14 +10670,14 @@
         <v>47</v>
       </c>
       <c r="B67" s="34"/>
-      <c r="C67" s="14">
-        <v>1</v>
-      </c>
-      <c r="D67" s="14">
-        <v>0</v>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
@@ -11075,10 +10694,10 @@
         <v>81</v>
       </c>
       <c r="B68" s="34"/>
-      <c r="C68" s="14">
-        <v>0</v>
-      </c>
-      <c r="D68" s="14">
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
@@ -11096,13 +10715,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" s="34"/>
-      <c r="C69" s="14">
-        <v>1</v>
-      </c>
-      <c r="D69" s="14">
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1">
@@ -11115,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -11123,10 +10742,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="37"/>
-      <c r="C70" s="14">
-        <v>0</v>
-      </c>
-      <c r="D70" s="14">
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
@@ -11144,13 +10763,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B71" s="34"/>
-      <c r="C71" s="14">
-        <v>0</v>
-      </c>
-      <c r="D71" s="14">
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
@@ -11168,13 +10787,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B72" s="14"/>
-      <c r="C72" s="14">
-        <v>0</v>
-      </c>
-      <c r="D72" s="14">
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
@@ -11192,13 +10811,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B73" s="14"/>
-      <c r="C73" s="14">
-        <v>0</v>
-      </c>
-      <c r="D73" s="14">
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
@@ -11216,13 +10835,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B74" s="14"/>
-      <c r="C74" s="14">
-        <v>0</v>
-      </c>
-      <c r="D74" s="14">
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
